--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/tk18583_bristol_ac_uk/Documents/Documents/GIT/QUSS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68D395C2-8711-4946-9AFB-D66B5FF3FFAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{68D395C2-8711-4946-9AFB-D66B5FF3FFAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67183B88-6D02-4F03-8C1A-CA267BFF6C31}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0284D646-AD08-40C3-A716-CD9E6437E99F}"/>
   </bookViews>
@@ -56,14 +56,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="20">
   <si>
     <t>Period</t>
   </si>
   <si>
-    <t>Week start at Date</t>
-  </si>
-  <si>
     <t xml:space="preserve">Week </t>
   </si>
   <si>
@@ -110,6 +107,15 @@
   </si>
   <si>
     <t>QUSS Beers</t>
+  </si>
+  <si>
+    <t>Week start on</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -470,37 +476,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF015926-2187-4219-ACCD-3CE7CABC6AE9}">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G40"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="11.7265625" customWidth="1"/>
     <col min="3" max="3" width="24.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>16</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -511,13 +518,13 @@
         <v>44459</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -528,13 +535,13 @@
         <v>44466</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -545,13 +552,13 @@
         <v>44473</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -562,10 +569,10 @@
         <v>44480</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -576,10 +583,10 @@
         <v>44487</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -590,10 +597,10 @@
         <v>44494</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -604,10 +611,10 @@
         <v>44501</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -618,10 +625,10 @@
         <v>44508</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -632,10 +639,10 @@
         <v>44515</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -646,10 +653,10 @@
         <v>44522</v>
       </c>
       <c r="C11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -660,10 +667,10 @@
         <v>44529</v>
       </c>
       <c r="C12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -674,10 +681,10 @@
         <v>44536</v>
       </c>
       <c r="C13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -688,10 +695,10 @@
         <v>44543</v>
       </c>
       <c r="C14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -702,13 +709,13 @@
         <v>44550</v>
       </c>
       <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -719,13 +726,13 @@
         <v>44557</v>
       </c>
       <c r="C16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -736,13 +743,13 @@
         <v>44564</v>
       </c>
       <c r="C17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -753,13 +760,13 @@
         <v>44571</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -770,13 +777,13 @@
         <v>44578</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -787,10 +794,10 @@
         <v>44585</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
@@ -801,10 +808,10 @@
         <v>44592</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
@@ -815,10 +822,10 @@
         <v>44599</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
@@ -829,10 +836,10 @@
         <v>44606</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
@@ -843,10 +850,10 @@
         <v>44613</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
@@ -857,10 +864,10 @@
         <v>44620</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
@@ -871,10 +878,10 @@
         <v>44627</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
@@ -885,10 +892,10 @@
         <v>44634</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
@@ -899,10 +906,10 @@
         <v>44641</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
@@ -913,10 +920,10 @@
         <v>44648</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
@@ -927,13 +934,13 @@
         <v>44655</v>
       </c>
       <c r="C30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>18</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
@@ -944,13 +951,13 @@
         <v>44662</v>
       </c>
       <c r="C31" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>18</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
@@ -961,13 +968,13 @@
         <v>44669</v>
       </c>
       <c r="C32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="D32" t="s">
+        <v>18</v>
       </c>
       <c r="F32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
@@ -978,10 +985,10 @@
         <v>44676</v>
       </c>
       <c r="C33" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
@@ -992,10 +999,10 @@
         <v>44683</v>
       </c>
       <c r="C34" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
@@ -1006,10 +1013,10 @@
         <v>44690</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="D35" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
@@ -1020,13 +1027,13 @@
         <v>44697</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="D36" t="s">
+        <v>18</v>
       </c>
       <c r="F36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
@@ -1037,13 +1044,13 @@
         <v>44704</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="D37" t="s">
+        <v>18</v>
       </c>
       <c r="F37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
@@ -1054,13 +1061,13 @@
         <v>44711</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="D38" t="s">
+        <v>18</v>
       </c>
       <c r="F38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
@@ -1069,11 +1076,11 @@
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B40" s="1"/>
       <c r="C40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D40">
         <f>SUM(D2:D38)</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G40" cm="1">
         <f t="array" aca="1" ref="G40" ca="1">A1:G40</f>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/tk18583_bristol_ac_uk/Documents/Documents/GIT/QUSS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{68D395C2-8711-4946-9AFB-D66B5FF3FFAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67183B88-6D02-4F03-8C1A-CA267BFF6C31}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="8_{68D395C2-8711-4946-9AFB-D66B5FF3FFAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1BA7EE78-CAED-4350-96AE-CC7E3266B90C}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0284D646-AD08-40C3-A716-CD9E6437E99F}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7360" xr2:uid="{0284D646-AD08-40C3-A716-CD9E6437E99F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="21">
   <si>
     <t>Period</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mary Abed Al Ahad &lt;maaa1@st-andrews.ac.uk&gt; - </t>
   </si>
 </sst>
 </file>
@@ -137,15 +140,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -153,13 +162,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,8 +505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF015926-2187-4219-ACCD-3CE7CABC6AE9}">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -488,587 +517,686 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2">
+      <c r="A2" s="3">
         <v>-1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="4">
         <v>44459</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3">
+      <c r="A3" s="3">
         <v>0</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="4">
         <v>44466</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="4">
         <v>44473</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="D4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5">
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="6">
         <v>44480</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6">
+      <c r="D5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
         <v>3</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="6">
         <v>44487</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7">
+      <c r="D6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="6">
         <v>44494</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8">
+      <c r="D7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
         <v>5</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="6">
         <v>44501</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9">
+      <c r="D8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="6">
         <v>44508</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10">
+      <c r="D9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="5">
         <v>7</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="6">
         <v>44515</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11">
+      <c r="D10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
         <v>8</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="6">
         <v>44522</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12">
+      <c r="D11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
         <v>9</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="6">
         <v>44529</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13">
+      <c r="D12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
         <v>10</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="6">
         <v>44536</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14">
+      <c r="D13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="5">
         <v>11</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="6">
         <v>44543</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D14" t="s">
-        <v>19</v>
-      </c>
+      <c r="D14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15">
+      <c r="A15" s="3">
         <v>12</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="4">
         <v>44550</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F15" t="s">
+      <c r="E15" s="3"/>
+      <c r="F15" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16">
+      <c r="A16" s="3">
         <v>13</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="4">
         <v>44557</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F16" t="s">
+      <c r="E16" s="3"/>
+      <c r="F16" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17">
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
         <v>14</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="4">
         <v>44564</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F17" t="s">
+      <c r="E17" s="3"/>
+      <c r="F17" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18">
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="3">
         <v>15</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="4">
         <v>44571</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F18" t="s">
+      <c r="E18" s="3"/>
+      <c r="F18" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19">
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="3">
         <v>16</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="4">
         <v>44578</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="D19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20">
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="5">
         <v>17</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="6">
         <v>44585</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21">
+      <c r="D20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="5">
         <v>18</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="6">
         <v>44592</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>19</v>
-      </c>
-      <c r="B22" s="1">
+      <c r="D21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="5">
+        <v>19</v>
+      </c>
+      <c r="B22" s="6">
         <v>44599</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23">
+      <c r="D22" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="5">
         <v>20</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="6">
         <v>44606</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24">
+      <c r="D23" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="5">
         <v>21</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="6">
         <v>44613</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D24" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25">
+      <c r="D24" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="5">
         <v>22</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="6">
         <v>44620</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26">
+      <c r="D25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="5">
         <v>23</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="6">
         <v>44627</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D26" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27">
+      <c r="D26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="5">
         <v>24</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="6">
         <v>44634</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28">
+      <c r="D27" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5">
         <v>25</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="6">
         <v>44641</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29">
+      <c r="D28" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="5">
         <v>26</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="6">
         <v>44648</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30">
+      <c r="D29" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="3">
         <v>27</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="4">
         <v>44655</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F30" t="s">
+      <c r="E30" s="3"/>
+      <c r="F30" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31">
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="3">
         <v>28</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="4">
         <v>44662</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F31" t="s">
+      <c r="E31" s="3"/>
+      <c r="F31" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32">
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="3">
         <v>29</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="4">
         <v>44669</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F32" t="s">
+      <c r="E32" s="3"/>
+      <c r="F32" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33">
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="5">
         <v>30</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="6">
         <v>44676</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D33" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34">
+      <c r="D33" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="5">
         <v>31</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="6">
         <v>44683</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D34" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35">
+      <c r="D34" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="5">
         <v>32</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="6">
         <v>44690</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D35" t="s">
-        <v>19</v>
-      </c>
+      <c r="D35" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36">
+      <c r="A36" s="3">
         <v>33</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="4">
         <v>44697</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F36" t="s">
+      <c r="E36" s="3"/>
+      <c r="F36" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="G36" s="3"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37">
+      <c r="A37" s="3">
         <v>34</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="4">
         <v>44704</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F37" t="s">
+      <c r="E37" s="3"/>
+      <c r="F37" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="G37" s="3"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38">
+      <c r="A38" s="3">
         <v>35</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="4">
         <v>44711</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F38" t="s">
+      <c r="E38" s="3"/>
+      <c r="F38" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="G38" s="3"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B39" s="1"/>
